--- a/datos/Generador inputs horarios 2.xlsx
+++ b/datos/Generador inputs horarios 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327006BF-79FB-45EF-9803-60D37AA3B637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEEBACF-0F4D-4BB6-8DDD-8C3305CECECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,11 +994,11 @@
       </c>
       <c r="D7">
         <f>IF(C7="","",A39)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <f>SUM(D53:H53)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7" t="str">
         <f>IF(E7&gt;=D7,"OK","ERROR")</f>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">IF(K7="","",INDEX($D$38:$AC$38,(ROW(K7)-ROW($K$7))*2+1))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>22</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="D8">
         <f>IF(C8="","",A40)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <f>SUM(D54:H54)</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F19" si="2">IF(E8&gt;=D8,"OK","ERROR")</f>
@@ -1047,14 +1047,14 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" ref="L8">IF(K8="","",INDEX($D$38:$AC$38,(ROW(K8)-ROW($K$7))*2+1))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>23</v>
@@ -1070,11 +1070,11 @@
       </c>
       <c r="D9">
         <f>IF(C9="","",A41)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <f>SUM(D55:H55)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
@@ -1085,14 +1085,14 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L9" s="18">
         <f>IF(K9="","",INDEX($D$38:$AC$38,(ROW(K9)-ROW($K$7))*2+1))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="D10">
         <f>IF(C10="","",A42)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <f>SUM(D56:H56)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
@@ -1116,14 +1116,14 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">IF(K10="","",INDEX($D$38:$AC$38,(ROW(K10)-ROW($K$7))*2+1))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="D11">
         <f>IF(C11="","",A43)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E17" si="3">SUM(D57:H57)</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="L11" cm="1">
         <f t="array" ref="L11">IF(K11="","",INDEX($D$38:$AC$38,(ROW(K11)-ROW($K$7))*2+1))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
@@ -1157,11 +1157,11 @@
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D19" si="4">IF(C12="","",A44)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="L12" cm="1">
         <f t="array" ref="L12">IF(K12="","",INDEX($D$38:$AC$38,(ROW(K12)-ROW($K$7))*2+1))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
@@ -1186,11 +1186,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="L13" cm="1">
         <f t="array" ref="L13">IF(K13="","",INDEX($D$38:$AC$38,(ROW(K13)-ROW($K$7))*2+1))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
@@ -1215,11 +1215,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
@@ -1244,11 +1244,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="L15" cm="1">
         <f t="array" ref="L15">IF(K15="","",INDEX($D$38:$AC$38,(ROW(K15)-ROW($K$7))*2+1))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
@@ -1273,11 +1273,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="L16" cm="1">
         <f t="array" ref="L16">IF(K16="","",INDEX($D$38:$AC$38,(ROW(K16)-ROW($K$7))*2+1))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="L17" cm="1">
         <f t="array" ref="L17">IF(K17="","",INDEX($D$38:$AC$38,(ROW(K17)-ROW($K$7))*2+1))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="L18" cm="1">
         <f t="array" ref="L18">IF(K18="","",INDEX($D$38:$AC$38,(ROW(K18)-ROW($K$7))*2+1))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -1522,37 +1522,37 @@
         <v>Clase A</v>
       </c>
       <c r="D24" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>2</v>
       </c>
       <c r="J24" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="L24" s="21">
+        <v>1</v>
+      </c>
+      <c r="M24" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="N24" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24" s="21" t="s">
         <v>40</v>
@@ -1573,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="V24" s="14">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>3</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z24" s="14">
         <v>2</v>
       </c>
       <c r="AA24" s="14" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
@@ -1607,31 +1607,31 @@
         <v>Clase B</v>
       </c>
       <c r="D25" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="22">
         <v>3</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H25" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="L25" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" s="22" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="P25" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="22" t="s">
         <v>41</v>
@@ -1658,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="V25" s="15">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>44</v>
       </c>
       <c r="X25" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y25" s="15" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Z25" s="15">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H26" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N26" s="22">
         <v>3</v>
@@ -1728,7 +1728,7 @@
         <v>40</v>
       </c>
       <c r="P26" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="22" t="s">
         <v>41</v>
@@ -1740,22 +1740,22 @@
         <v>42</v>
       </c>
       <c r="T26" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="V26" s="15">
         <v>2</v>
       </c>
       <c r="W26" s="15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X26" s="15">
         <v>3</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z26" s="15">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>Clase D</v>
       </c>
       <c r="D27" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="22">
         <v>4</v>
@@ -1789,13 +1789,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>2</v>
@@ -1813,7 +1813,7 @@
         <v>40</v>
       </c>
       <c r="P27" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="22" t="s">
         <v>41</v>
@@ -1831,7 +1831,7 @@
         <v>43</v>
       </c>
       <c r="V27" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="15" t="s">
         <v>44</v>
@@ -1843,7 +1843,7 @@
         <v>45</v>
       </c>
       <c r="Z27" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA27" s="15" t="s">
         <v>51</v>
@@ -2184,7 +2184,7 @@
     <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38">
         <f>SUM(D24:D28)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <f>SUM(E24:E27)</f>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="F38">
         <f t="shared" ref="F38:AC38" si="7">SUM(F24:F27)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G38">
         <f t="shared" si="7"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H38" s="19">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <f t="shared" si="7"/>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K38">
         <f t="shared" si="7"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <f t="shared" si="7"/>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O38">
         <f t="shared" si="7"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q38">
         <f t="shared" si="7"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U38">
         <f t="shared" si="7"/>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <f t="shared" si="7"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="X38">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y38">
         <f t="shared" si="7"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="Z38">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA38">
         <f t="shared" si="7"/>
@@ -2290,7 +2290,7 @@
     <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>SUM(C39:AB39)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>C7</f>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="D39" s="9">
         <f>SUMIFS(D$24:D$27,E$24:E$27,$C39)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" ref="E39:AC39" si="8">SUMIFS(E$24:E$27,F$24:F$27,$C39)</f>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="H39" s="9">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="8"/>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="T39" s="9">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U39" s="9">
         <f t="shared" si="8"/>
@@ -2404,7 +2404,7 @@
     <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40:A51" si="9">SUM(C40:AB40)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C40" s="10" t="str">
         <f t="shared" ref="C40:C51" si="10">C8</f>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D40" s="10">
         <f t="shared" ref="D40:AC40" si="11">SUMIFS(D$24:D$27,E$24:E$27,$C40)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E40" s="10">
         <f t="shared" si="11"/>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="F40" s="10">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G40" s="10">
         <f t="shared" si="11"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="H40" s="10">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="10">
         <f t="shared" si="11"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="X40" s="10">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="10">
         <f t="shared" si="11"/>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="Z40" s="10">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="10">
         <f t="shared" si="11"/>
@@ -2518,7 +2518,7 @@
     <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" s="10" t="str">
         <f t="shared" si="10"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="H41" s="10">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="12"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" si="12"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="T41" s="10">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U41" s="10">
         <f t="shared" si="12"/>
@@ -2632,7 +2632,7 @@
     <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42" s="10" t="str">
         <f t="shared" si="10"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="F42" s="10">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="13"/>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="10">
         <f t="shared" si="13"/>
@@ -2746,7 +2746,7 @@
     <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" s="10" t="str">
         <f t="shared" si="10"/>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="N43" s="10">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O43" s="10">
         <f t="shared" si="14"/>
@@ -2860,7 +2860,7 @@
     <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C44" s="10" t="str">
         <f t="shared" si="10"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="F44" s="10">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" s="10">
         <f t="shared" si="15"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="L44" s="10">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" s="10">
         <f t="shared" si="15"/>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="P44" s="10">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q44" s="10">
         <f t="shared" si="15"/>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="V44" s="10">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W44" s="10">
         <f t="shared" si="15"/>
@@ -2974,7 +2974,7 @@
     <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C45" s="10" t="str">
         <f t="shared" si="10"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="X45" s="10">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="10">
         <f t="shared" si="16"/>
@@ -3088,7 +3088,7 @@
     <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C46" s="10" t="str">
         <f t="shared" si="10"/>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="F46" s="10">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="17"/>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="T46" s="10">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="U46" s="10">
         <f t="shared" si="17"/>
@@ -3202,7 +3202,7 @@
     <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C47" s="10" t="str">
         <f t="shared" si="10"/>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="J47" s="10">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="10">
         <f t="shared" si="18"/>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="X47" s="10">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="10">
         <f t="shared" si="18"/>
@@ -3316,7 +3316,7 @@
     <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C48" s="10" t="str">
         <f t="shared" si="10"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="X48" s="10">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y48" s="10">
         <f t="shared" si="19"/>
@@ -3430,7 +3430,7 @@
     <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C49" s="10" t="str">
         <f t="shared" si="10"/>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="T49" s="10">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U49" s="10">
         <f t="shared" si="20"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="Z49" s="10">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA49" s="10">
         <f t="shared" si="20"/>
@@ -3809,19 +3809,19 @@
       </c>
       <c r="E53" s="30">
         <f t="shared" ref="E53:H53" si="23">IF(E72="",E$90-E$89,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F53" s="30">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G53" s="30">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H53" s="30">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -3856,19 +3856,19 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" ref="E54:H54" si="25">IF(E73="",E$90-E$89,0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F54" s="28">
         <f t="shared" si="25"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G54" s="28">
         <f t="shared" si="25"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H54" s="28">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -3899,23 +3899,23 @@
       </c>
       <c r="D55" s="28">
         <f>IF(D74="",D$90-D$89,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E55" s="28">
         <f t="shared" ref="E55:H55" si="26">IF(E74="",E$90-E$89,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" s="28">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55" s="28">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H55" s="28">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -3954,11 +3954,11 @@
       </c>
       <c r="F56" s="28">
         <f t="shared" si="27"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G56" s="28">
         <f t="shared" si="27"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H56" s="28">
         <f t="shared" si="27"/>
@@ -3993,23 +3993,23 @@
       </c>
       <c r="D57" s="28">
         <f t="shared" ref="D57:H57" si="28">IF(D76="",D$90-D$89,0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E57" s="28">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" s="28">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" s="28">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" s="28">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -4044,19 +4044,19 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="29"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" s="28">
         <f t="shared" si="29"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G58" s="28">
         <f t="shared" si="29"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H58" s="28">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -4087,23 +4087,23 @@
       </c>
       <c r="D59" s="28">
         <f t="shared" ref="D59:H59" si="30">IF(D78="",D$90-D$89,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E59" s="28">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" s="28">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G59" s="28">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H59" s="28">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -4134,23 +4134,23 @@
       </c>
       <c r="D60" s="28">
         <f t="shared" ref="D60:H60" si="31">IF(D79="",D$90-D$89,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E60" s="28">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" s="28">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G60" s="28">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H60" s="28">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -4181,23 +4181,23 @@
       </c>
       <c r="D61" s="28">
         <f t="shared" ref="D61:H61" si="32">IF(D80="",D$90-D$89,0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E61" s="28">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F61" s="28">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G61" s="28">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H61" s="28">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -4232,19 +4232,19 @@
       </c>
       <c r="E62" s="28">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" s="28">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G62" s="28">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H62" s="28">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -4275,23 +4275,23 @@
       </c>
       <c r="D63" s="28">
         <f t="shared" ref="D63:H63" si="34">IF(D82="",D$90-D$89,0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E63" s="28">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F63" s="28">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G63" s="28">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H63" s="28">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -4326,19 +4326,19 @@
       </c>
       <c r="E64" s="28">
         <f t="shared" si="35"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" s="28">
         <f t="shared" si="35"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G64" s="28">
         <f t="shared" si="35"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H64" s="28">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -4373,19 +4373,19 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" s="27">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G65" s="27">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H65" s="27">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
@@ -4557,9 +4557,7 @@
         <v>PEPE</v>
       </c>
       <c r="D72" s="14"/>
-      <c r="E72" s="14">
-        <v>1</v>
-      </c>
+      <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -4574,7 +4572,9 @@
         <v>PEPA</v>
       </c>
       <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="E73" s="15">
+        <v>1</v>
+      </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -4588,9 +4588,7 @@
         <f t="shared" si="37"/>
         <v>MARIO</v>
       </c>
-      <c r="D74" s="15">
-        <v>1</v>
-      </c>
+      <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -4624,7 +4622,9 @@
         <f t="shared" si="37"/>
         <v>JOSE</v>
       </c>
-      <c r="D76" s="22"/>
+      <c r="D76" s="22">
+        <v>1</v>
+      </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
@@ -4654,15 +4654,13 @@
         <f t="shared" si="37"/>
         <v>ANTONIA</v>
       </c>
-      <c r="D78" s="22">
-        <v>1</v>
-      </c>
+      <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
-      <c r="G78" s="22">
+      <c r="G78" s="22"/>
+      <c r="H78" s="22">
         <v>1</v>
       </c>
-      <c r="H78" s="22"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -4673,13 +4671,9 @@
         <f t="shared" si="37"/>
         <v>LUISA</v>
       </c>
-      <c r="D79" s="22">
-        <v>1</v>
-      </c>
+      <c r="D79" s="22"/>
       <c r="E79" s="22"/>
-      <c r="F79" s="22">
-        <v>1</v>
-      </c>
+      <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
     </row>
@@ -4692,12 +4686,16 @@
         <f t="shared" si="37"/>
         <v>MIGUEL</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22">
+      <c r="D80" s="22">
         <v>1</v>
       </c>
+      <c r="E80" s="22">
+        <v>1</v>
+      </c>
+      <c r="F80" s="22">
+        <v>1</v>
+      </c>
+      <c r="G80" s="22"/>
       <c r="H80" s="22"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
@@ -4724,13 +4722,15 @@
         <f t="shared" si="37"/>
         <v>LAURA</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22">
+      <c r="D82" s="22">
         <v>1</v>
       </c>
+      <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
+      <c r="H82" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -4839,16 +4839,16 @@
         <v>14</v>
       </c>
       <c r="E90" s="24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F90" s="24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" s="24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="D92" s="25">
         <f>SUM(D90:H90)-SUM(D89:H89)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B2">
         <f>Sheet1!D24</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="str">
         <f>Sheet1!E24</f>
@@ -5016,15 +5016,15 @@
       </c>
       <c r="D2">
         <f>Sheet1!F24</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="str">
         <f>Sheet1!G24</f>
-        <v>MARIA</v>
+        <v>PEPA</v>
       </c>
       <c r="F2">
         <f>Sheet1!H24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
         <f>Sheet1!I24</f>
@@ -5032,23 +5032,23 @@
       </c>
       <c r="H2">
         <f>Sheet1!J24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="str">
         <f>Sheet1!K24</f>
-        <v>RAMON</v>
+        <v>MARIO</v>
       </c>
       <c r="J2">
         <f>Sheet1!L24</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
         <f>Sheet1!M24</f>
-        <v>JUAN</v>
+        <v>MARIA</v>
       </c>
       <c r="L2">
         <f>Sheet1!N24</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="str">
         <f>Sheet1!O24</f>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="S2" t="str">
         <f>Sheet1!U24</f>
-        <v>LAURA</v>
+        <v>LUISA</v>
       </c>
       <c r="T2" s="19">
         <f>Sheet1!V24</f>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="W2" t="str">
         <f>Sheet1!Y24</f>
-        <v>ANTONIA</v>
+        <v>RAMON</v>
       </c>
       <c r="X2">
         <f>Sheet1!Z24</f>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="Y2" t="str">
         <f>Sheet1!AA24</f>
-        <v>PEPA</v>
+        <v>LAURA</v>
       </c>
       <c r="Z2">
         <f>Sheet1!AB24</f>
@@ -5118,11 +5118,11 @@
       </c>
       <c r="B3">
         <f>Sheet1!D25</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
         <f>Sheet1!E25</f>
-        <v>PEPA</v>
+        <v>PEPE</v>
       </c>
       <c r="D3">
         <f>Sheet1!F25</f>
@@ -5130,11 +5130,11 @@
       </c>
       <c r="E3" t="str">
         <f>Sheet1!G25</f>
-        <v>JUAN</v>
+        <v>PEPA</v>
       </c>
       <c r="F3">
         <f>Sheet1!H25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
         <f>Sheet1!I25</f>
@@ -5142,15 +5142,15 @@
       </c>
       <c r="H3">
         <f>Sheet1!J25</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="str">
         <f>Sheet1!K25</f>
-        <v>MIGUEL</v>
+        <v>MARIO</v>
       </c>
       <c r="J3">
         <f>Sheet1!L25</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="str">
         <f>Sheet1!M25</f>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="N3">
         <f>Sheet1!P25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="str">
         <f>Sheet1!Q25</f>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="S3" t="str">
         <f>Sheet1!U25</f>
-        <v>MARIO</v>
+        <v>LUISA</v>
       </c>
       <c r="T3" s="19">
         <f>Sheet1!V25</f>
@@ -5198,11 +5198,11 @@
       </c>
       <c r="V3">
         <f>Sheet1!X25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W3" t="str">
         <f>Sheet1!Y25</f>
-        <v>PEPA</v>
+        <v>RAMON</v>
       </c>
       <c r="X3">
         <f>Sheet1!Z25</f>
@@ -5240,11 +5240,11 @@
       </c>
       <c r="E4" t="str">
         <f>Sheet1!G26</f>
-        <v>LUISA</v>
+        <v>PEPA</v>
       </c>
       <c r="F4">
         <f>Sheet1!H26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
         <f>Sheet1!I26</f>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="K4" t="str">
         <f>Sheet1!M26</f>
-        <v>JOSE</v>
+        <v>MARIA</v>
       </c>
       <c r="L4">
         <f>Sheet1!N26</f>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="N4">
         <f>Sheet1!P26</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" t="str">
         <f>Sheet1!Q26</f>
@@ -5292,11 +5292,11 @@
       </c>
       <c r="R4">
         <f>Sheet1!T26</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4" t="str">
         <f>Sheet1!U26</f>
-        <v>PEPE</v>
+        <v>LUISA</v>
       </c>
       <c r="T4" s="19">
         <f>Sheet1!V26</f>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="U4" t="str">
         <f>Sheet1!W26</f>
-        <v>JUAN</v>
+        <v>MIGUEL</v>
       </c>
       <c r="V4">
         <f>Sheet1!X26</f>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="W4" t="str">
         <f>Sheet1!Y26</f>
-        <v>MIGUEL</v>
+        <v>RAMON</v>
       </c>
       <c r="X4">
         <f>Sheet1!Z26</f>
@@ -5338,11 +5338,11 @@
       </c>
       <c r="B5">
         <f>Sheet1!D27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="str">
         <f>Sheet1!E27</f>
-        <v>PEPA</v>
+        <v>PEPE</v>
       </c>
       <c r="D5">
         <f>Sheet1!F27</f>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="F5">
         <f>Sheet1!H27</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
         <f>Sheet1!I27</f>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="H5">
         <f>Sheet1!J27</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" t="str">
         <f>Sheet1!K27</f>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="N5">
         <f>Sheet1!P27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="str">
         <f>Sheet1!Q27</f>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="T5" s="19">
         <f>Sheet1!V27</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U5" t="str">
         <f>Sheet1!W27</f>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="X5">
         <f>Sheet1!Z27</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="str">
         <f>Sheet1!AA27</f>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="C2">
         <f>Sheet1!E72</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>Sheet1!F72</f>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C3">
         <f>Sheet1!E73</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f>Sheet1!F73</f>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="B4">
         <f>Sheet1!D74</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>Sheet1!E74</f>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B6">
         <f>Sheet1!D76</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f>Sheet1!E76</f>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B8">
         <f>Sheet1!D78</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>Sheet1!E78</f>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="E8">
         <f>Sheet1!G78</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>Sheet1!H78</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B9">
         <f>Sheet1!D79</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f>Sheet1!E79</f>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="D9">
         <f>Sheet1!F79</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f>Sheet1!G79</f>
@@ -6683,19 +6683,19 @@
       </c>
       <c r="B10">
         <f>Sheet1!D80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f>Sheet1!E80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f>Sheet1!F80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f>Sheet1!G80</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>Sheet1!H80</f>
@@ -6735,11 +6735,11 @@
       </c>
       <c r="B12">
         <f>Sheet1!D82</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f>Sheet1!E82</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f>Sheet1!F82</f>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="F12">
         <f>Sheet1!H82</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6872,19 +6872,19 @@
       </c>
       <c r="B3">
         <f>Sheet1!E90</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <f>Sheet1!F90</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <f>Sheet1!G90</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <f>Sheet1!H90</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/datos/Generador inputs horarios 2.xlsx
+++ b/datos/Generador inputs horarios 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\practicaevol\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEEBACF-0F4D-4BB6-8DDD-8C3305CECECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D129270D-47D0-4A6F-B8FB-9BF10871A2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">"09/19/2019 00:03:48"</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44501.4052662037</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
@@ -50,24 +50,32 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -82,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>PEPE</t>
   </si>
@@ -121,9 +129,6 @@
   </si>
   <si>
     <t>Lengua</t>
-  </si>
-  <si>
-    <t>Tutoría</t>
   </si>
   <si>
     <t>Historia</t>
@@ -441,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -466,7 +471,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -795,11 +799,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
@@ -931,7 +935,7 @@
     </row>
     <row r="2" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -939,7 +943,7 @@
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -960,28 +964,28 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="30" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="9">
         <f>COUNTA($C$7:$C$19)</f>
@@ -1019,7 +1023,7 @@
         <v>17</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" s="10">
         <f>COUNTA($H$7:$H$19)</f>
@@ -1057,11 +1061,11 @@
         <v>15</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="11">
         <f>COUNTA($K$7:$K$19)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
@@ -1090,9 +1094,9 @@
       <c r="K9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="18">
-        <f>IF(K9="","",INDEX($D$38:$AC$38,(ROW(K9)-ROW($K$7))*2+1))</f>
-        <v>0</v>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">IF(K9="","",INDEX($D$38:$AC$38,(ROW(K9)-ROW($K$7))*2+1))</f>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
@@ -1123,12 +1127,12 @@
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">IF(K10="","",INDEX($D$38:$AC$38,(ROW(K10)-ROW($K$7))*2+1))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <f>IF(C11="","",A43)</f>
@@ -1148,12 +1152,12 @@
       </c>
       <c r="L11" cm="1">
         <f t="array" ref="L11">IF(K11="","",INDEX($D$38:$AC$38,(ROW(K11)-ROW($K$7))*2+1))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D19" si="4">IF(C12="","",A44)</f>
@@ -1177,12 +1181,12 @@
       </c>
       <c r="L12" cm="1">
         <f t="array" ref="L12">IF(K12="","",INDEX($D$38:$AC$38,(ROW(K12)-ROW($K$7))*2+1))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
@@ -1202,16 +1206,16 @@
         <v/>
       </c>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" ref="L13">IF(K13="","",INDEX($D$38:$AC$38,(ROW(K13)-ROW($K$7))*2+1))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -1235,12 +1239,12 @@
       </c>
       <c r="L14" cm="1">
         <f t="array" ref="L14">IF(K14="","",INDEX($D$38:$AC$38,(ROW(K14)-ROW($K$7))*2+1))</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
@@ -1260,16 +1264,16 @@
         <v/>
       </c>
       <c r="K15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L15" cm="1">
         <f t="array" ref="L15">IF(K15="","",INDEX($D$38:$AC$38,(ROW(K15)-ROW($K$7))*2+1))</f>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
@@ -1289,16 +1293,16 @@
         <v/>
       </c>
       <c r="K16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L16" cm="1">
         <f t="array" ref="L16">IF(K16="","",INDEX($D$38:$AC$38,(ROW(K16)-ROW($K$7))*2+1))</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
@@ -1318,11 +1322,11 @@
         <v/>
       </c>
       <c r="K17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" ref="L17">IF(K17="","",INDEX($D$38:$AC$38,(ROW(K17)-ROW($K$7))*2+1))</f>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -1340,13 +1344,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" cm="1">
-        <f t="array" ref="L18">IF(K18="","",INDEX($D$38:$AC$38,(ROW(K18)-ROW($K$7))*2+1))</f>
-        <v>4</v>
-      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
@@ -1371,7 +1369,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1405,7 +1403,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(D23)-COLUMN($D23))/2+1)</f>
@@ -1425,83 +1423,83 @@
       </c>
       <c r="H23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(H23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Tutoría</v>
+        <v>horas_Historia</v>
       </c>
       <c r="I23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(H23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Tutoría</v>
+        <v>profesor_Historia</v>
       </c>
       <c r="J23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(J23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Historia</v>
+        <v>horas_Química</v>
       </c>
       <c r="K23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(J23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Historia</v>
+        <v>profesor_Química</v>
       </c>
       <c r="L23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(L23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Química</v>
+        <v>horas_Física</v>
       </c>
       <c r="M23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(L23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Química</v>
+        <v>profesor_Física</v>
       </c>
       <c r="N23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(N23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Física</v>
+        <v>horas_Filosofía</v>
       </c>
       <c r="O23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(N23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Física</v>
+        <v>profesor_Filosofía</v>
       </c>
       <c r="P23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(P23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Filosofía</v>
+        <v>horas_Música</v>
       </c>
       <c r="Q23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(P23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Filosofía</v>
+        <v>profesor_Música</v>
       </c>
       <c r="R23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(R23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Música</v>
+        <v>horas_Catalán</v>
       </c>
       <c r="S23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(R23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Música</v>
+        <v>profesor_Catalán</v>
       </c>
       <c r="T23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(T23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Catalán</v>
+        <v>horas_Ed. física</v>
       </c>
       <c r="U23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(T23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Catalán</v>
+        <v>profesor_Ed. física</v>
       </c>
       <c r="V23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(V23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Ed. física</v>
+        <v>horas_Inglés</v>
       </c>
       <c r="W23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(V23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Ed. física</v>
+        <v>profesor_Inglés</v>
       </c>
       <c r="X23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(X23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Inglés</v>
+        <v>horas_Biología</v>
       </c>
       <c r="Y23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(X23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Inglés</v>
+        <v>profesor_Biología</v>
       </c>
       <c r="Z23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(Z23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Biología</v>
+        <v>horas_</v>
       </c>
       <c r="AA23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(Z23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Biología</v>
+        <v>profesor_</v>
       </c>
       <c r="AB23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(AB23)-COLUMN($D23))/2+1)</f>
@@ -1521,78 +1519,74 @@
         <f t="shared" ref="C24:C36" si="5">IF(H7="","",H7)</f>
         <v>Clase A</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>5</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
+      <c r="E24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
         <v>4</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21" t="s">
+      <c r="H24" s="20">
         <v>2</v>
       </c>
-      <c r="J24" s="21">
+      <c r="I24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="J24" s="20">
+        <v>1</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="20">
         <v>2</v>
       </c>
-      <c r="L24" s="21">
-        <v>1</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="21">
+      <c r="M24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="20">
         <v>2</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="O24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="21" t="s">
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14" t="s">
         <v>41</v>
       </c>
       <c r="R24" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S24" s="14" t="s">
         <v>42</v>
       </c>
       <c r="T24" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U24" s="14" t="s">
         <v>43</v>
       </c>
       <c r="V24" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W24" s="14" t="s">
         <v>44</v>
       </c>
       <c r="X24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z24" s="14">
-        <v>2</v>
-      </c>
-      <c r="AA24" s="14" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
@@ -1606,78 +1600,74 @@
         <f t="shared" si="5"/>
         <v>Clase B</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>3</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="E25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
         <v>3</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
+      <c r="H25" s="21">
         <v>4</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="22">
+      <c r="J25" s="21">
         <v>3</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="K25" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="22">
-        <v>0</v>
-      </c>
-      <c r="O25" s="22" t="s">
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="21">
+        <v>4</v>
+      </c>
+      <c r="O25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="15">
         <v>4</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R25" s="15">
-        <v>0</v>
       </c>
       <c r="S25" s="15" t="s">
         <v>42</v>
       </c>
       <c r="T25" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V25" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W25" s="15" t="s">
         <v>44</v>
       </c>
       <c r="X25" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
     </row>
@@ -1691,78 +1681,74 @@
         <f t="shared" si="5"/>
         <v>Clase C</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>4</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="E26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
         <v>4</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="22">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22" t="s">
+      <c r="H26" s="21">
+        <v>3</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="21">
+        <v>3</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="21">
         <v>1</v>
       </c>
-      <c r="J26" s="22">
+      <c r="O26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="15">
         <v>3</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="22">
-        <v>0</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="22">
-        <v>3</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R26" s="15">
-        <v>2</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>42</v>
       </c>
       <c r="T26" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U26" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V26" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="X26" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
     </row>
@@ -1776,78 +1762,74 @@
         <f t="shared" si="5"/>
         <v>Clase D</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>5</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="22">
+      <c r="E27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
         <v>4</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="22">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22" t="s">
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="21">
+        <v>2</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="22">
-        <v>0</v>
-      </c>
-      <c r="K27" s="22" t="s">
+      <c r="L27" s="21">
+        <v>3</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="21">
         <v>2</v>
       </c>
-      <c r="L27" s="22">
-        <v>2</v>
-      </c>
-      <c r="M27" s="22" t="s">
+      <c r="O27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="15">
         <v>3</v>
-      </c>
-      <c r="N27" s="22">
-        <v>3</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R27" s="15">
-        <v>0</v>
       </c>
       <c r="S27" s="15" t="s">
         <v>42</v>
       </c>
       <c r="T27" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V27" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27" s="15" t="s">
         <v>44</v>
       </c>
       <c r="X27" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z27" s="15">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
     </row>
@@ -2150,7 +2132,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="27" t="str">
+      <c r="C36" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2198,9 +2180,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I38">
         <f t="shared" si="7"/>
@@ -2208,7 +2190,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K38">
         <f t="shared" si="7"/>
@@ -2216,7 +2198,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M38">
         <f t="shared" si="7"/>
@@ -2224,7 +2206,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O38">
         <f t="shared" si="7"/>
@@ -2232,7 +2214,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q38">
         <f t="shared" si="7"/>
@@ -2240,7 +2222,7 @@
       </c>
       <c r="R38">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S38">
         <f t="shared" si="7"/>
@@ -2248,7 +2230,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U38">
         <f t="shared" si="7"/>
@@ -2256,7 +2238,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="W38">
         <f t="shared" si="7"/>
@@ -2264,7 +2246,7 @@
       </c>
       <c r="X38">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Y38">
         <f t="shared" si="7"/>
@@ -2272,7 +2254,7 @@
       </c>
       <c r="Z38">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <f t="shared" si="7"/>
@@ -2542,7 +2524,7 @@
       </c>
       <c r="H41" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="12"/>
@@ -2550,7 +2532,7 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" si="12"/>
@@ -2664,7 +2646,7 @@
       </c>
       <c r="J42" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" si="13"/>
@@ -2672,7 +2654,7 @@
       </c>
       <c r="L42" s="10">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M42" s="10">
         <f t="shared" si="13"/>
@@ -2786,7 +2768,7 @@
       </c>
       <c r="L43" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M43" s="10">
         <f t="shared" si="14"/>
@@ -2794,7 +2776,7 @@
       </c>
       <c r="N43" s="10">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O43" s="10">
         <f t="shared" si="14"/>
@@ -2908,7 +2890,7 @@
       </c>
       <c r="N44" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O44" s="10">
         <f t="shared" si="15"/>
@@ -2916,7 +2898,7 @@
       </c>
       <c r="P44" s="10">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="10">
         <f t="shared" si="15"/>
@@ -3030,7 +3012,7 @@
       </c>
       <c r="P45" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="10">
         <f t="shared" si="16"/>
@@ -3038,7 +3020,7 @@
       </c>
       <c r="R45" s="10">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S45" s="10">
         <f t="shared" si="16"/>
@@ -3152,7 +3134,7 @@
       </c>
       <c r="R46" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S46" s="10">
         <f t="shared" si="17"/>
@@ -3160,7 +3142,7 @@
       </c>
       <c r="T46" s="10">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U46" s="10">
         <f t="shared" si="17"/>
@@ -3274,7 +3256,7 @@
       </c>
       <c r="T47" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U47" s="10">
         <f t="shared" si="18"/>
@@ -3282,7 +3264,7 @@
       </c>
       <c r="V47" s="10">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W47" s="10">
         <f t="shared" si="18"/>
@@ -3396,7 +3378,7 @@
       </c>
       <c r="V48" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W48" s="10">
         <f t="shared" si="19"/>
@@ -3404,7 +3386,7 @@
       </c>
       <c r="X48" s="10">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="10">
         <f t="shared" si="19"/>
@@ -3518,7 +3500,7 @@
       </c>
       <c r="X49" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y49" s="10">
         <f t="shared" si="20"/>
@@ -3526,7 +3508,7 @@
       </c>
       <c r="Z49" s="10">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="10">
         <f t="shared" si="20"/>
@@ -3803,23 +3785,23 @@
         <f>C39</f>
         <v>PEPE</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="29">
         <f>IF(D72="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="29">
         <f t="shared" ref="E53:H53" si="23">IF(E72="",E$90-E$89,0)</f>
         <v>6</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="29">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="29">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H53" s="29">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
@@ -3850,23 +3832,23 @@
         <f t="shared" ref="C54:C65" si="24">C40</f>
         <v>PEPA</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="27">
         <f>IF(D73="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="27">
         <f t="shared" ref="E54:H54" si="25">IF(E73="",E$90-E$89,0)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="27">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="27">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="27">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
@@ -3897,23 +3879,23 @@
         <f t="shared" si="24"/>
         <v>MARIO</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D55" s="27">
         <f>IF(D74="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="27">
         <f t="shared" ref="E55:H55" si="26">IF(E74="",E$90-E$89,0)</f>
         <v>6</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="27">
         <f t="shared" si="26"/>
         <v>6</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="27">
         <f t="shared" si="26"/>
         <v>6</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="27">
         <f t="shared" si="26"/>
         <v>6</v>
       </c>
@@ -3944,23 +3926,23 @@
         <f t="shared" si="24"/>
         <v>MARIA</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="27">
         <f>IF(D75="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="27">
         <f t="shared" ref="E56:H56" si="27">IF(E75="",E$90-E$89,0)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="27">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="27">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="H56" s="28">
+      <c r="H56" s="27">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3991,23 +3973,23 @@
         <f t="shared" si="24"/>
         <v>JOSE</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D57" s="27">
         <f t="shared" ref="D57:H57" si="28">IF(D76="",D$90-D$89,0)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="27">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="27">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="27">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H57" s="27">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
@@ -4038,23 +4020,23 @@
         <f t="shared" si="24"/>
         <v>JUAN</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D58" s="27">
         <f t="shared" ref="D58:H58" si="29">IF(D77="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="27">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="27">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="27">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="27">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
@@ -4085,23 +4067,23 @@
         <f t="shared" si="24"/>
         <v>ANTONIA</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D59" s="27">
         <f t="shared" ref="D59:H59" si="30">IF(D78="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="27">
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="27">
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="27">
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="27">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -4132,23 +4114,23 @@
         <f t="shared" si="24"/>
         <v>LUISA</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D60" s="27">
         <f t="shared" ref="D60:H60" si="31">IF(D79="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="27">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="27">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="G60" s="28">
+      <c r="G60" s="27">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="H60" s="28">
+      <c r="H60" s="27">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
@@ -4179,23 +4161,23 @@
         <f t="shared" si="24"/>
         <v>MIGUEL</v>
       </c>
-      <c r="D61" s="28">
+      <c r="D61" s="27">
         <f t="shared" ref="D61:H61" si="32">IF(D80="",D$90-D$89,0)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="27">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="27">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="27">
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="27">
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
@@ -4226,23 +4208,23 @@
         <f t="shared" si="24"/>
         <v>RAMON</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="27">
         <f t="shared" ref="D62:H62" si="33">IF(D81="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="27">
         <f t="shared" si="33"/>
         <v>6</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="27">
         <f t="shared" si="33"/>
         <v>6</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="27">
         <f t="shared" si="33"/>
         <v>6</v>
       </c>
-      <c r="H62" s="28">
+      <c r="H62" s="27">
         <f t="shared" si="33"/>
         <v>6</v>
       </c>
@@ -4273,23 +4255,23 @@
         <f t="shared" si="24"/>
         <v>LAURA</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D63" s="27">
         <f t="shared" ref="D63:H63" si="34">IF(D82="",D$90-D$89,0)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="27">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F63" s="27">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="27">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="H63" s="28">
+      <c r="H63" s="27">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -4320,23 +4302,23 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="27">
         <f t="shared" ref="D64:H64" si="35">IF(D83="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="27">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="27">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="27">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="27">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -4367,23 +4349,23 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="26">
         <f t="shared" ref="D65:H65" si="36">IF(D84="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="26">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="26">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="G65" s="27">
+      <c r="G65" s="26">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="H65" s="27">
+      <c r="H65" s="26">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
@@ -4498,7 +4480,7 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -4530,22 +4512,22 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="E71" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="F71" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="G71" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="H71" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
@@ -4622,13 +4604,13 @@
         <f t="shared" si="37"/>
         <v>JOSE</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="21">
         <v>1</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -4639,11 +4621,11 @@
         <f t="shared" si="37"/>
         <v>JUAN</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -4654,11 +4636,11 @@
         <f t="shared" si="37"/>
         <v>ANTONIA</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22">
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4671,11 +4653,11 @@
         <f t="shared" si="37"/>
         <v>LUISA</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -4686,17 +4668,17 @@
         <f t="shared" si="37"/>
         <v>MIGUEL</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="21">
         <v>1</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="21">
         <v>1</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="21">
         <v>1</v>
       </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -4707,11 +4689,11 @@
         <f t="shared" si="37"/>
         <v>RAMON</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -4722,13 +4704,13 @@
         <f t="shared" si="37"/>
         <v>LAURA</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D82" s="21">
         <v>1</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22">
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4737,34 +4719,34 @@
         <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="C83" s="28" t="str">
+      <c r="C83" s="27" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="38"/>
         <v>13</v>
       </c>
-      <c r="C84" s="27" t="str">
+      <c r="C84" s="26" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -4795,67 +4777,67 @@
       <c r="AC86" s="5"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="F88" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="G88" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G88" s="20" t="s">
+      <c r="H88" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="23">
+        <v>32</v>
+      </c>
+      <c r="D89" s="22">
         <v>8</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="22">
         <v>8</v>
       </c>
-      <c r="F89" s="23">
+      <c r="F89" s="22">
         <v>8</v>
       </c>
-      <c r="G89" s="23">
+      <c r="G89" s="22">
         <v>8</v>
       </c>
-      <c r="H89" s="23">
+      <c r="H89" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C90" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="24">
+        <v>33</v>
+      </c>
+      <c r="D90" s="23">
         <v>14</v>
       </c>
-      <c r="E90" s="24">
+      <c r="E90" s="23">
         <v>14</v>
       </c>
-      <c r="F90" s="24">
+      <c r="F90" s="23">
         <v>14</v>
       </c>
-      <c r="G90" s="24">
+      <c r="G90" s="23">
         <v>14</v>
       </c>
-      <c r="H90" s="24">
+      <c r="H90" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C92" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="25">
+        <v>34</v>
+      </c>
+      <c r="D92" s="24">
         <f>SUM(D90:H90)-SUM(D89:H89)</f>
         <v>30</v>
       </c>
@@ -4872,7 +4854,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC24:AC36 G24:G36 AA24:AA36 Y24:Y36 W24:W36 U24:U36 S24:S36 M24:M36 E24:E36 O24:O36 Q24:Q36 I24:I36 K24:K36" xr:uid="{BD0261D8-304A-4349-A29B-DD9F01694367}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC24:AC36 G24:G36 AA24:AA36 W24:W36 U24:U36 S24:S36 M24:M36 O24:O36 E24:E36 Q24:Q36 I24:I36 K24:K36 Y24:Y36" xr:uid="{BD0261D8-304A-4349-A29B-DD9F01694367}">
       <formula1>$C$7:$C$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -4889,7 +4871,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -4914,83 +4896,83 @@
       </c>
       <c r="F1" t="str">
         <f>Sheet1!H23</f>
-        <v>horas_Tutoría</v>
+        <v>horas_Historia</v>
       </c>
       <c r="G1" t="str">
         <f>Sheet1!I23</f>
-        <v>profesor_Tutoría</v>
+        <v>profesor_Historia</v>
       </c>
       <c r="H1" t="str">
         <f>Sheet1!J23</f>
-        <v>horas_Historia</v>
+        <v>horas_Química</v>
       </c>
       <c r="I1" t="str">
         <f>Sheet1!K23</f>
-        <v>profesor_Historia</v>
+        <v>profesor_Química</v>
       </c>
       <c r="J1" t="str">
         <f>Sheet1!L23</f>
-        <v>horas_Química</v>
+        <v>horas_Física</v>
       </c>
       <c r="K1" t="str">
         <f>Sheet1!M23</f>
-        <v>profesor_Química</v>
+        <v>profesor_Física</v>
       </c>
       <c r="L1" t="str">
         <f>Sheet1!N23</f>
-        <v>horas_Física</v>
+        <v>horas_Filosofía</v>
       </c>
       <c r="M1" t="str">
         <f>Sheet1!O23</f>
-        <v>profesor_Física</v>
+        <v>profesor_Filosofía</v>
       </c>
       <c r="N1" t="str">
         <f>Sheet1!P23</f>
-        <v>horas_Filosofía</v>
+        <v>horas_Música</v>
       </c>
       <c r="O1" t="str">
         <f>Sheet1!Q23</f>
-        <v>profesor_Filosofía</v>
+        <v>profesor_Música</v>
       </c>
       <c r="P1" t="str">
         <f>Sheet1!R23</f>
-        <v>horas_Música</v>
+        <v>horas_Catalán</v>
       </c>
       <c r="Q1" t="str">
         <f>Sheet1!S23</f>
-        <v>profesor_Música</v>
+        <v>profesor_Catalán</v>
       </c>
       <c r="R1" t="str">
         <f>Sheet1!T23</f>
-        <v>horas_Catalán</v>
+        <v>horas_Ed. física</v>
       </c>
       <c r="S1" t="str">
         <f>Sheet1!U23</f>
-        <v>profesor_Catalán</v>
-      </c>
-      <c r="T1" s="19" t="str">
+        <v>profesor_Ed. física</v>
+      </c>
+      <c r="T1" s="18" t="str">
         <f>Sheet1!V23</f>
-        <v>horas_Ed. física</v>
+        <v>horas_Inglés</v>
       </c>
       <c r="U1" t="str">
         <f>Sheet1!W23</f>
-        <v>profesor_Ed. física</v>
+        <v>profesor_Inglés</v>
       </c>
       <c r="V1" t="str">
         <f>Sheet1!X23</f>
-        <v>horas_Inglés</v>
+        <v>horas_Biología</v>
       </c>
       <c r="W1" t="str">
         <f>Sheet1!Y23</f>
-        <v>profesor_Inglés</v>
+        <v>profesor_Biología</v>
       </c>
       <c r="X1" t="str">
         <f>Sheet1!Z23</f>
-        <v>horas_Biología</v>
+        <v>horas_</v>
       </c>
       <c r="Y1" t="str">
         <f>Sheet1!AA23</f>
-        <v>profesor_Biología</v>
+        <v>profesor_</v>
       </c>
       <c r="Z1" t="str">
         <f>Sheet1!AB23</f>
@@ -5024,7 +5006,7 @@
       </c>
       <c r="F2">
         <f>Sheet1!H24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
         <f>Sheet1!I24</f>
@@ -5032,19 +5014,19 @@
       </c>
       <c r="H2">
         <f>Sheet1!J24</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
         <f>Sheet1!K24</f>
-        <v>MARIO</v>
+        <v>MARIA</v>
       </c>
       <c r="J2">
         <f>Sheet1!L24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="str">
         <f>Sheet1!M24</f>
-        <v>MARIA</v>
+        <v>JOSE</v>
       </c>
       <c r="L2">
         <f>Sheet1!N24</f>
@@ -5052,55 +5034,55 @@
       </c>
       <c r="M2" t="str">
         <f>Sheet1!O24</f>
-        <v>JOSE</v>
+        <v>JUAN</v>
       </c>
       <c r="N2">
         <f>Sheet1!P24</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="str">
         <f>Sheet1!Q24</f>
-        <v>JUAN</v>
+        <v>ANTONIA</v>
       </c>
       <c r="P2">
         <f>Sheet1!R24</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="str">
         <f>Sheet1!S24</f>
-        <v>ANTONIA</v>
+        <v>LUISA</v>
       </c>
       <c r="R2">
         <f>Sheet1!T24</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S2" t="str">
         <f>Sheet1!U24</f>
-        <v>LUISA</v>
-      </c>
-      <c r="T2" s="19">
+        <v>MIGUEL</v>
+      </c>
+      <c r="T2" s="18">
         <f>Sheet1!V24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U2" t="str">
         <f>Sheet1!W24</f>
-        <v>MIGUEL</v>
+        <v>RAMON</v>
       </c>
       <c r="V2">
         <f>Sheet1!X24</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" t="str">
         <f>Sheet1!Y24</f>
-        <v>RAMON</v>
+        <v>LAURA</v>
       </c>
       <c r="X2">
         <f>Sheet1!Z24</f>
-        <v>2</v>
-      </c>
-      <c r="Y2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <f>Sheet1!AA24</f>
-        <v>LAURA</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f>Sheet1!AB24</f>
@@ -5134,83 +5116,83 @@
       </c>
       <c r="F3">
         <f>Sheet1!H25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="str">
         <f>Sheet1!I25</f>
-        <v>PEPE</v>
+        <v>MARIO</v>
       </c>
       <c r="H3">
         <f>Sheet1!J25</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="str">
         <f>Sheet1!K25</f>
-        <v>MARIO</v>
+        <v>MARIA</v>
       </c>
       <c r="J3">
         <f>Sheet1!L25</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
         <f>Sheet1!M25</f>
-        <v>MARIA</v>
+        <v>JOSE</v>
       </c>
       <c r="L3">
         <f>Sheet1!N25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="str">
         <f>Sheet1!O25</f>
-        <v>JOSE</v>
+        <v>JUAN</v>
       </c>
       <c r="N3">
         <f>Sheet1!P25</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="str">
         <f>Sheet1!Q25</f>
-        <v>JUAN</v>
+        <v>ANTONIA</v>
       </c>
       <c r="P3">
         <f>Sheet1!R25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="str">
         <f>Sheet1!S25</f>
-        <v>ANTONIA</v>
+        <v>LUISA</v>
       </c>
       <c r="R3">
         <f>Sheet1!T25</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="str">
         <f>Sheet1!U25</f>
-        <v>LUISA</v>
-      </c>
-      <c r="T3" s="19">
+        <v>MIGUEL</v>
+      </c>
+      <c r="T3" s="18">
         <f>Sheet1!V25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U3" t="str">
         <f>Sheet1!W25</f>
-        <v>MIGUEL</v>
+        <v>RAMON</v>
       </c>
       <c r="V3">
         <f>Sheet1!X25</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W3" t="str">
         <f>Sheet1!Y25</f>
-        <v>RAMON</v>
+        <v>LAURA</v>
       </c>
       <c r="X3">
         <f>Sheet1!Z25</f>
         <v>0</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="Y3">
         <f>Sheet1!AA25</f>
-        <v>LAURA</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <f>Sheet1!AB25</f>
@@ -5244,83 +5226,83 @@
       </c>
       <c r="F4">
         <f>Sheet1!H26</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="str">
         <f>Sheet1!I26</f>
-        <v>PEPA</v>
+        <v>MARIO</v>
       </c>
       <c r="H4">
         <f>Sheet1!J26</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="str">
         <f>Sheet1!K26</f>
-        <v>MARIO</v>
+        <v>MARIA</v>
       </c>
       <c r="J4">
         <f>Sheet1!L26</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="str">
         <f>Sheet1!M26</f>
-        <v>MARIA</v>
+        <v>JOSE</v>
       </c>
       <c r="L4">
         <f>Sheet1!N26</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" t="str">
         <f>Sheet1!O26</f>
-        <v>JOSE</v>
+        <v>JUAN</v>
       </c>
       <c r="N4">
         <f>Sheet1!P26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="str">
         <f>Sheet1!Q26</f>
-        <v>JUAN</v>
+        <v>ANTONIA</v>
       </c>
       <c r="P4">
         <f>Sheet1!R26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="str">
         <f>Sheet1!S26</f>
-        <v>ANTONIA</v>
+        <v>LUISA</v>
       </c>
       <c r="R4">
         <f>Sheet1!T26</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" t="str">
         <f>Sheet1!U26</f>
-        <v>LUISA</v>
-      </c>
-      <c r="T4" s="19">
+        <v>MIGUEL</v>
+      </c>
+      <c r="T4" s="18">
         <f>Sheet1!V26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" t="str">
         <f>Sheet1!W26</f>
-        <v>MIGUEL</v>
+        <v>RAMON</v>
       </c>
       <c r="V4">
         <f>Sheet1!X26</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4" t="str">
         <f>Sheet1!Y26</f>
-        <v>RAMON</v>
+        <v>LAURA</v>
       </c>
       <c r="X4">
         <f>Sheet1!Z26</f>
         <v>0</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="Y4">
         <f>Sheet1!AA26</f>
-        <v>LAURA</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <f>Sheet1!AB26</f>
@@ -5358,79 +5340,79 @@
       </c>
       <c r="G5" t="str">
         <f>Sheet1!I27</f>
-        <v>MARIA</v>
+        <v>MARIO</v>
       </c>
       <c r="H5">
         <f>Sheet1!J27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="str">
         <f>Sheet1!K27</f>
-        <v>MARIO</v>
+        <v>MARIA</v>
       </c>
       <c r="J5">
         <f>Sheet1!L27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="str">
         <f>Sheet1!M27</f>
-        <v>MARIA</v>
+        <v>JOSE</v>
       </c>
       <c r="L5">
         <f>Sheet1!N27</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="str">
         <f>Sheet1!O27</f>
-        <v>JOSE</v>
+        <v>JUAN</v>
       </c>
       <c r="N5">
         <f>Sheet1!P27</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="str">
         <f>Sheet1!Q27</f>
-        <v>JUAN</v>
+        <v>ANTONIA</v>
       </c>
       <c r="P5">
         <f>Sheet1!R27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="str">
         <f>Sheet1!S27</f>
-        <v>ANTONIA</v>
+        <v>LUISA</v>
       </c>
       <c r="R5">
         <f>Sheet1!T27</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5" t="str">
         <f>Sheet1!U27</f>
-        <v>LUISA</v>
-      </c>
-      <c r="T5" s="19">
+        <v>MIGUEL</v>
+      </c>
+      <c r="T5" s="18">
         <f>Sheet1!V27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U5" t="str">
         <f>Sheet1!W27</f>
-        <v>MIGUEL</v>
+        <v>RAMON</v>
       </c>
       <c r="V5">
         <f>Sheet1!X27</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W5" t="str">
         <f>Sheet1!Y27</f>
-        <v>RAMON</v>
+        <v>LAURA</v>
       </c>
       <c r="X5">
         <f>Sheet1!Z27</f>
-        <v>2</v>
-      </c>
-      <c r="Y5" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <f>Sheet1!AA27</f>
-        <v>LAURA</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f>Sheet1!AB27</f>
@@ -5514,7 +5496,7 @@
         <f>Sheet1!U28</f>
         <v>0</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="18">
         <f>Sheet1!V28</f>
         <v>0</v>
       </c>
@@ -5624,7 +5606,7 @@
         <f>Sheet1!U29</f>
         <v>0</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="18">
         <f>Sheet1!V29</f>
         <v>0</v>
       </c>
@@ -5734,7 +5716,7 @@
         <f>Sheet1!U30</f>
         <v>0</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="18">
         <f>Sheet1!V30</f>
         <v>0</v>
       </c>
@@ -5844,7 +5826,7 @@
         <f>Sheet1!U31</f>
         <v>0</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="18">
         <f>Sheet1!V31</f>
         <v>0</v>
       </c>
@@ -5954,7 +5936,7 @@
         <f>Sheet1!U32</f>
         <v>0</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="18">
         <f>Sheet1!V32</f>
         <v>0</v>
       </c>
@@ -6064,7 +6046,7 @@
         <f>Sheet1!U33</f>
         <v>0</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="18">
         <f>Sheet1!V33</f>
         <v>0</v>
       </c>
@@ -6174,7 +6156,7 @@
         <f>Sheet1!U34</f>
         <v>0</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="18">
         <f>Sheet1!V34</f>
         <v>0</v>
       </c>
@@ -6284,7 +6266,7 @@
         <f>Sheet1!U35</f>
         <v>0</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="18">
         <f>Sheet1!V35</f>
         <v>0</v>
       </c>
@@ -6318,83 +6300,83 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="str">
+      <c r="A14" s="18" t="str">
         <f>Sheet1!C36</f>
         <v/>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f>Sheet1!D36</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f>Sheet1!E36</f>
         <v>0</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f>Sheet1!F36</f>
         <v>0</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <f>Sheet1!G36</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <f>Sheet1!H36</f>
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <f>Sheet1!I36</f>
         <v>0</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <f>Sheet1!J36</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <f>Sheet1!K36</f>
         <v>0</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <f>Sheet1!L36</f>
         <v>0</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <f>Sheet1!M36</f>
         <v>0</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="18">
         <f>Sheet1!N36</f>
         <v>0</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <f>Sheet1!O36</f>
         <v>0</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <f>Sheet1!P36</f>
         <v>0</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="18">
         <f>Sheet1!Q36</f>
         <v>0</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="18">
         <f>Sheet1!R36</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="18">
         <f>Sheet1!S36</f>
         <v>0</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="18">
         <f>Sheet1!T36</f>
         <v>0</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14" s="18">
         <f>Sheet1!U36</f>
         <v>0</v>
       </c>
-      <c r="T14" s="19">
+      <c r="T14" s="18">
         <f>Sheet1!V36</f>
         <v>0</v>
       </c>
@@ -6440,7 +6422,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -6819,7 +6801,7 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
